--- a/experiments/IISBMP2/data/sampling_log.xlsx
+++ b/experiments/IISBMP2/data/sampling_log.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcher\Dropbox\GD-BMP shared\IISBMP2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au521230\Documents\GitHub\GD-BMP\experiments\IISBMP2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F717A-0AD2-4AE5-AFCB-AA49EF75096C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
   <si>
     <t>Week</t>
   </si>
@@ -384,12 +383,15 @@
   </si>
   <si>
     <t>Mon 4 Feb</t>
+  </si>
+  <si>
+    <t>Sun 7 April</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -422,12 +424,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2254,10 +2259,26 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+    <row r="85" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="1">
+        <f>C84+62</f>
+        <v>192</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
@@ -2265,17 +2286,24 @@
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+      <c r="A87" s="3">
+        <v>43500</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+      <c r="A88" s="3">
+        <v>43562</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <f>A88-A87</f>
+        <v>62</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
